--- a/Config/Config/TestConfig/Test.xlsx
+++ b/Config/Config/TestConfig/Test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\F2\F2\Config\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\F2\Config\Config\TestConfig\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD2731B-702C-4AC1-BD13-59A4745E57ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADF3B96B-06EE-490E-87FC-1B9CD3A7F05C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>string</t>
   </si>
@@ -128,6 +128,22 @@
   </si>
   <si>
     <t>TestEnumF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestDefin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TesData</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,bbb,2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -453,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -468,10 +484,11 @@
     <col min="5" max="5" width="11.875" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
     <col min="7" max="7" width="54.375" customWidth="1"/>
-    <col min="8" max="8" width="26.25" customWidth="1"/>
+    <col min="8" max="8" width="31.125" customWidth="1"/>
+    <col min="9" max="9" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -496,8 +513,11 @@
       <c r="H1" t="s">
         <v>20</v>
       </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -522,8 +542,11 @@
       <c r="H2" t="s">
         <v>21</v>
       </c>
+      <c r="I2" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -548,8 +571,11 @@
       <c r="H3" t="s">
         <v>22</v>
       </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -574,8 +600,11 @@
       <c r="H4" t="s">
         <v>19</v>
       </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -589,12 +618,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -609,7 +638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39BFC6BC-7423-48C9-97DA-8BAFD89870E9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
